--- a/examples/ploomber_demo/Peak Fitting Data Reporting-CSIC-ICV.xlsx
+++ b/examples/ploomber_demo/Peak Fitting Data Reporting-CSIC-ICV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nina\DATA\charisma_onedrive\SpectraForPaper\ploomber_demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nina\src\charisma\vamas_twa42_p6_raman_calibration\examples\ploomber_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="186">
   <si>
     <t>How To Use This Document</t>
   </si>
@@ -603,6 +603,9 @@
   </si>
   <si>
     <t>BACKGROUND_SUBSTRACTED</t>
+  </si>
+  <si>
+    <t>NIST/NISTSRM2242aC_BW532_20x_700msx1.txt</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1264,6 +1267,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1271,7 +1287,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1481,51 +1497,6 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1537,6 +1508,78 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1544,16 +1587,6 @@
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1706,6 +1739,16 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1928,8 +1971,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M12" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
-  <autoFilter ref="A1:M12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
+  <autoFilter ref="A1:M13"/>
   <sortState ref="A2:M103">
     <sortCondition ref="F1:F103"/>
   </sortState>
@@ -1937,15 +1980,15 @@
     <tableColumn id="1" name="Sample" dataDxfId="14"/>
     <tableColumn id="2" name="Measurement #" dataDxfId="13"/>
     <tableColumn id="3" name="Filename" dataDxfId="12"/>
-    <tableColumn id="4" name="Background" dataDxfId="0"/>
-    <tableColumn id="5" name="Overexposed" dataDxfId="11"/>
-    <tableColumn id="6" name="Instrument/OP ID" dataDxfId="10"/>
-    <tableColumn id="7" name="Laser power, %" dataDxfId="9"/>
-    <tableColumn id="8" name="Laser power, mW" dataDxfId="8"/>
-    <tableColumn id="9" name="Integration time, ms" dataDxfId="7"/>
-    <tableColumn id="10" name="Humidity " dataDxfId="6"/>
-    <tableColumn id="11" name="Temperature , C" dataDxfId="5"/>
-    <tableColumn id="12" name="Date" dataDxfId="4"/>
+    <tableColumn id="4" name="Background" dataDxfId="11"/>
+    <tableColumn id="5" name="Overexposed" dataDxfId="10"/>
+    <tableColumn id="6" name="Instrument/OP ID" dataDxfId="9"/>
+    <tableColumn id="7" name="Laser power, %" dataDxfId="8"/>
+    <tableColumn id="8" name="Laser power, mW" dataDxfId="7"/>
+    <tableColumn id="9" name="Integration time, ms" dataDxfId="6"/>
+    <tableColumn id="10" name="Humidity " dataDxfId="5"/>
+    <tableColumn id="11" name="Temperature , C" dataDxfId="4"/>
+    <tableColumn id="12" name="Date" dataDxfId="3"/>
     <tableColumn id="13" name="Time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1953,12 +1996,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="MaterialsTable" displayName="MaterialsTable" ref="B1:J1048576" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="MaterialsTable" displayName="MaterialsTable" ref="B1:J1048576" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="B1:J1048576"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Identifiers"/>
     <tableColumn id="2" name="ID"/>
-    <tableColumn id="3" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="Name" dataDxfId="0"/>
     <tableColumn id="4" name="CAS"/>
     <tableColumn id="5" name="type"/>
     <tableColumn id="6" name="Supplier"/>
@@ -2279,91 +2322,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="91"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="83"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="94"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="83"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
     </row>
     <row r="4" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="86"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1"/>
     <row r="8" spans="1:15" ht="15" thickBot="1">
@@ -2677,18 +2720,18 @@
         <v>41</v>
       </c>
       <c r="C1" s="33"/>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
       <c r="H1" s="32" t="s">
         <v>145</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2696,30 +2739,30 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="21"/>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="92"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="39"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="90"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
       <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" s="45" customFormat="1" ht="28.2" customHeight="1">
@@ -5782,10 +5825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5793,7 +5836,7 @@
     <col min="1" max="1" width="19.5546875" style="60" customWidth="1"/>
     <col min="2" max="2" width="16.109375" style="66" customWidth="1"/>
     <col min="3" max="3" width="75.21875" style="63" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="95" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="80" customWidth="1"/>
     <col min="5" max="5" width="15" style="51" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" style="66" customWidth="1"/>
     <col min="7" max="7" width="16.21875" style="51" customWidth="1"/>
@@ -5816,7 +5859,7 @@
       <c r="C1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="78" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="68" t="s">
@@ -5857,7 +5900,7 @@
       <c r="C2" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="79" t="s">
         <v>184</v>
       </c>
       <c r="E2" s="48"/>
@@ -5884,7 +5927,7 @@
       <c r="C3" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="79" t="s">
         <v>184</v>
       </c>
       <c r="E3" s="48"/>
@@ -5911,7 +5954,7 @@
       <c r="C4" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="79" t="s">
         <v>184</v>
       </c>
       <c r="E4" s="48"/>
@@ -5938,7 +5981,7 @@
       <c r="C5" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="79" t="s">
         <v>184</v>
       </c>
       <c r="E5" s="48"/>
@@ -5965,7 +6008,7 @@
       <c r="C6" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="79" t="s">
         <v>184</v>
       </c>
       <c r="E6" s="48"/>
@@ -5992,7 +6035,7 @@
       <c r="C7" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="79" t="s">
         <v>184</v>
       </c>
       <c r="E7" s="48"/>
@@ -6019,7 +6062,7 @@
       <c r="C8" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="79" t="s">
         <v>184</v>
       </c>
       <c r="E8" s="55"/>
@@ -6046,7 +6089,7 @@
       <c r="C9" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="79" t="s">
         <v>184</v>
       </c>
       <c r="E9" s="55"/>
@@ -6073,7 +6116,7 @@
       <c r="C10" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="79" t="s">
         <v>184</v>
       </c>
       <c r="E10" s="55"/>
@@ -6100,7 +6143,7 @@
       <c r="C11" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="79" t="s">
         <v>184</v>
       </c>
       <c r="E11" s="55"/>
@@ -6127,7 +6170,7 @@
       <c r="C12" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="79" t="s">
         <v>184</v>
       </c>
       <c r="E12" s="55"/>
@@ -6143,6 +6186,33 @@
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
       <c r="M12" s="55"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="82">
+        <v>1</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="88">
+        <v>700</v>
+      </c>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
     </row>
   </sheetData>
   <dataValidations count="4">
